--- a/Design/form.xlsx
+++ b/Design/form.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\vivi_piutang\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{990D2E28-B889-43BC-BEFA-D539FCB56030}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{48A38940-2CB6-4239-9E79-12F5B8AEBD93}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" firstSheet="1" activeTab="3" xr2:uid="{9BB28987-E14B-4B62-AB2B-FDBB0AC55854}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{9BB28987-E14B-4B62-AB2B-FDBB0AC55854}"/>
   </bookViews>
   <sheets>
     <sheet name="User Biasa DashBoard" sheetId="1" r:id="rId1"/>
     <sheet name="master" sheetId="3" r:id="rId2"/>
-    <sheet name="Laporan piutang" sheetId="8" r:id="rId3"/>
-    <sheet name="Kartu Piutang" sheetId="9" r:id="rId4"/>
+    <sheet name="penjualan" sheetId="11" r:id="rId3"/>
+    <sheet name="Laporan piutang" sheetId="8" r:id="rId4"/>
+    <sheet name="Kartu Piutang" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">master!$D$4:$V$21</definedName>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="82">
   <si>
     <t>Logo</t>
   </si>
@@ -228,6 +230,84 @@
   </si>
   <si>
     <t>Kredit</t>
+  </si>
+  <si>
+    <t>Data Penjualan</t>
+  </si>
+  <si>
+    <t>Tambahkan Data</t>
+  </si>
+  <si>
+    <t>Pencarian Data</t>
+  </si>
+  <si>
+    <t>Kode Penjualan</t>
+  </si>
+  <si>
+    <t>Total Penjualan</t>
+  </si>
+  <si>
+    <t>LOGO</t>
+  </si>
+  <si>
+    <t>Form Tambah Penjualan</t>
+  </si>
+  <si>
+    <t>Tambahkan Barang</t>
+  </si>
+  <si>
+    <t>Simpan Semua Barang</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Harga Jual</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Data Pembayaran</t>
+  </si>
+  <si>
+    <t>Kode Pembayaran</t>
+  </si>
+  <si>
+    <t>Total Bayar</t>
+  </si>
+  <si>
+    <t>Form Pembayaran Piutang</t>
+  </si>
+  <si>
+    <t>Simpan</t>
+  </si>
+  <si>
+    <t>Data Histori Piutang</t>
+  </si>
+  <si>
+    <t>Pelanggan</t>
+  </si>
+  <si>
+    <t>Dari Tanggal</t>
+  </si>
+  <si>
+    <t>Hingga Tanggal</t>
+  </si>
+  <si>
+    <t>Lihat Kartu Piutang</t>
+  </si>
+  <si>
+    <t>Cetak Kartu Piutang</t>
+  </si>
+  <si>
+    <t>Nama Toko : xxx</t>
+  </si>
+  <si>
+    <t>Nama Pemilik : xxx</t>
+  </si>
+  <si>
+    <t>Form Cetak Histori Piutang Pelanggan</t>
   </si>
 </sst>
 </file>
@@ -266,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,8 +443,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -582,11 +674,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,6 +793,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,6 +850,78 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,6 +949,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -728,195 +970,189 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,87 +1169,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1025,26 +1180,119 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1391,36 +1639,36 @@
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="6"/>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="142" t="s">
+      <c r="E3" s="106"/>
+      <c r="F3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="143"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="111"/>
       <c r="O3" s="7"/>
     </row>
     <row r="4" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="145"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="114"/>
       <c r="O4" s="7"/>
     </row>
     <row r="5" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1440,64 +1688,64 @@
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="6"/>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="139"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="117"/>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="6"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="160"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="120"/>
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="6"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="160"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="120"/>
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="6"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="141"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="123"/>
       <c r="O9" s="7"/>
     </row>
     <row r="10" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1517,96 +1765,96 @@
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="6"/>
-      <c r="D11" s="112" t="s">
+      <c r="D11" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="113"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="148" t="s">
+      <c r="K11" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="149"/>
-      <c r="M11" s="149"/>
-      <c r="N11" s="150"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="135"/>
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="6"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="115"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="129"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="153"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="138"/>
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="6"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="115"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="129"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="153"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="138"/>
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="6"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="115"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="129"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="153"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="138"/>
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="6"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="115"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="129"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="152"/>
-      <c r="N15" s="153"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="138"/>
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="6"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="117"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
-      <c r="N16" s="156"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="141"/>
       <c r="O16" s="7"/>
     </row>
     <row r="17" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1626,34 +1874,34 @@
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="52"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="65"/>
       <c r="O18" s="7"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="6"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="55"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="68"/>
       <c r="O19" s="7"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1689,36 +1937,36 @@
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="50" t="s">
+      <c r="E23" s="60"/>
+      <c r="F23" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="52"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="65"/>
       <c r="O23" s="7"/>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="6"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="55"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="68"/>
       <c r="O24" s="7"/>
     </row>
     <row r="25" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1738,64 +1986,64 @@
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="6"/>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="75"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="71"/>
       <c r="O26" s="7"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" s="6"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="78"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="74"/>
       <c r="O27" s="7"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="6"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="78"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="74"/>
       <c r="O28" s="7"/>
     </row>
     <row r="29" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="6"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="81"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="77"/>
       <c r="O29" s="7"/>
     </row>
     <row r="30" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1835,9 +2083,9 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="90"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="104"/>
       <c r="J32" s="16"/>
       <c r="K32" s="17" t="s">
         <v>13</v>
@@ -1886,9 +2134,9 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="90"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="104"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
       <c r="L35" s="18"/>
@@ -1943,34 +2191,34 @@
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C39" s="6"/>
-      <c r="D39" s="82" t="s">
+      <c r="D39" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="84"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="80"/>
       <c r="O39" s="7"/>
     </row>
     <row r="40" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="6"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
-      <c r="N40" s="87"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="83"/>
       <c r="O40" s="7"/>
     </row>
     <row r="41" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2006,36 +2254,36 @@
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="6"/>
-      <c r="D45" s="69" t="s">
+      <c r="D45" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="70"/>
-      <c r="F45" s="50" t="s">
+      <c r="E45" s="60"/>
+      <c r="F45" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="52"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="65"/>
       <c r="O45" s="7"/>
     </row>
     <row r="46" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="6"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="55"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="68"/>
       <c r="O46" s="7"/>
     </row>
     <row r="47" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2055,64 +2303,64 @@
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C48" s="6"/>
-      <c r="D48" s="73" t="s">
+      <c r="D48" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="75"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="71"/>
       <c r="O48" s="7"/>
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C49" s="6"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="77"/>
-      <c r="N49" s="78"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="74"/>
       <c r="O49" s="7"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C50" s="6"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="77"/>
-      <c r="M50" s="77"/>
-      <c r="N50" s="78"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="74"/>
       <c r="O50" s="7"/>
     </row>
     <row r="51" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
-      <c r="N51" s="81"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="77"/>
       <c r="O51" s="7"/>
     </row>
     <row r="52" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2132,96 +2380,96 @@
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C53" s="6"/>
-      <c r="D53" s="91" t="s">
+      <c r="D53" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="93"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="86"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="56" t="s">
+      <c r="K53" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="58"/>
+      <c r="L53" s="94"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="95"/>
       <c r="O53" s="7"/>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C54" s="6"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="96"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="89"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="61"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="97"/>
+      <c r="M54" s="97"/>
+      <c r="N54" s="98"/>
       <c r="O54" s="7"/>
     </row>
     <row r="55" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C55" s="6"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="96"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="89"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="61"/>
+      <c r="K55" s="96"/>
+      <c r="L55" s="97"/>
+      <c r="M55" s="97"/>
+      <c r="N55" s="98"/>
       <c r="O55" s="7"/>
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C56" s="6"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="95"/>
-      <c r="H56" s="95"/>
-      <c r="I56" s="96"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="89"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="61"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="97"/>
+      <c r="M56" s="97"/>
+      <c r="N56" s="98"/>
       <c r="O56" s="7"/>
     </row>
     <row r="57" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C57" s="6"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="95"/>
-      <c r="G57" s="95"/>
-      <c r="H57" s="95"/>
-      <c r="I57" s="96"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="89"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="60"/>
-      <c r="N57" s="61"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="97"/>
+      <c r="M57" s="97"/>
+      <c r="N57" s="98"/>
       <c r="O57" s="7"/>
     </row>
     <row r="58" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="6"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="98"/>
-      <c r="G58" s="98"/>
-      <c r="H58" s="98"/>
-      <c r="I58" s="99"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="92"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="63"/>
-      <c r="M58" s="63"/>
-      <c r="N58" s="64"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="100"/>
+      <c r="M58" s="100"/>
+      <c r="N58" s="101"/>
       <c r="O58" s="7"/>
     </row>
     <row r="59" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2241,34 +2489,34 @@
     </row>
     <row r="60" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C60" s="6"/>
-      <c r="D60" s="82" t="s">
+      <c r="D60" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="83"/>
-      <c r="N60" s="84"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="79"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="80"/>
       <c r="O60" s="7"/>
     </row>
     <row r="61" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C61" s="6"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="86"/>
-      <c r="I61" s="86"/>
-      <c r="J61" s="86"/>
-      <c r="K61" s="86"/>
-      <c r="L61" s="86"/>
-      <c r="M61" s="86"/>
-      <c r="N61" s="87"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="82"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="82"/>
+      <c r="L61" s="82"/>
+      <c r="M61" s="82"/>
+      <c r="N61" s="83"/>
       <c r="O61" s="7"/>
     </row>
     <row r="62" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2288,24 +2536,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D18:N19"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:N4"/>
+    <mergeCell ref="D6:N9"/>
+    <mergeCell ref="D11:I16"/>
+    <mergeCell ref="K11:N16"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="F23:N24"/>
+    <mergeCell ref="D26:N29"/>
+    <mergeCell ref="D39:N40"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G35:I35"/>
     <mergeCell ref="D45:E46"/>
     <mergeCell ref="F45:N46"/>
     <mergeCell ref="D48:N51"/>
     <mergeCell ref="D60:N61"/>
     <mergeCell ref="D53:I58"/>
     <mergeCell ref="K53:N58"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="F23:N24"/>
-    <mergeCell ref="D26:N29"/>
-    <mergeCell ref="D39:N40"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="D18:N19"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:N4"/>
-    <mergeCell ref="D6:N9"/>
-    <mergeCell ref="D11:I16"/>
-    <mergeCell ref="K11:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2318,8 +2566,8 @@
   </sheetPr>
   <dimension ref="D3:V79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C59" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60:V79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,50 +2610,50 @@
     </row>
     <row r="5" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="6"/>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="106" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="108"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="156"/>
+      <c r="T5" s="156"/>
+      <c r="U5" s="157"/>
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="6"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="109" t="s">
+      <c r="E6" s="66"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="111"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="159"/>
+      <c r="U6" s="160"/>
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2431,33 +2679,33 @@
     </row>
     <row r="8" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="6"/>
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="113"/>
+      <c r="F8" s="126"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="103" t="s">
+      <c r="H8" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="105"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
+      <c r="P8" s="162"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="162"/>
+      <c r="S8" s="162"/>
+      <c r="T8" s="163"/>
       <c r="U8" s="31"/>
       <c r="V8" s="7"/>
     </row>
     <row r="9" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="6"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="129"/>
       <c r="G9" s="8"/>
       <c r="H9" s="23"/>
       <c r="I9" s="25"/>
@@ -2477,33 +2725,33 @@
     </row>
     <row r="10" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="6"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="115"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="129"/>
       <c r="G10" s="8"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="119"/>
-      <c r="K10" s="120"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="148"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
-      <c r="O10" s="118" t="s">
+      <c r="O10" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="120"/>
+      <c r="P10" s="147"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="148"/>
       <c r="T10" s="26"/>
       <c r="U10" s="31"/>
       <c r="V10" s="7"/>
     </row>
     <row r="11" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="129"/>
       <c r="G11" s="8"/>
       <c r="H11" s="23"/>
       <c r="I11" s="25"/>
@@ -2523,30 +2771,30 @@
     </row>
     <row r="12" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="6"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="117"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="132"/>
       <c r="G12" s="8"/>
       <c r="H12" s="23"/>
       <c r="I12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="121" t="s">
+      <c r="J12" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="123"/>
-      <c r="L12" s="121" t="s">
+      <c r="K12" s="143"/>
+      <c r="L12" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="122"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="121" t="s">
+      <c r="M12" s="166"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="121" t="s">
+      <c r="P12" s="143"/>
+      <c r="Q12" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="123"/>
+      <c r="R12" s="143"/>
       <c r="S12" s="35" t="s">
         <v>19</v>
       </c>
@@ -2561,15 +2809,15 @@
       <c r="G13" s="8"/>
       <c r="H13" s="23"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="102"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="167"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="145"/>
       <c r="S13" s="36" t="s">
         <v>20</v>
       </c>
@@ -2684,46 +2932,46 @@
     </row>
     <row r="19" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D19" s="6"/>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="126"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="150"/>
+      <c r="Q19" s="150"/>
+      <c r="R19" s="150"/>
+      <c r="S19" s="150"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="151"/>
       <c r="V19" s="7"/>
     </row>
     <row r="20" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="6"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="128"/>
-      <c r="N20" s="128"/>
-      <c r="O20" s="128"/>
-      <c r="P20" s="128"/>
-      <c r="Q20" s="128"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="129"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="153"/>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="153"/>
+      <c r="T20" s="153"/>
+      <c r="U20" s="154"/>
       <c r="V20" s="7"/>
     </row>
     <row r="21" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2771,50 +3019,50 @@
     </row>
     <row r="25" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="6"/>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="106" t="s">
+      <c r="F25" s="65"/>
+      <c r="G25" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="108"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
+      <c r="P25" s="156"/>
+      <c r="Q25" s="156"/>
+      <c r="R25" s="156"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="157"/>
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="6"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="109" t="s">
+      <c r="E26" s="66"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="111"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159"/>
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
+      <c r="U26" s="160"/>
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2840,33 +3088,33 @@
     </row>
     <row r="28" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="6"/>
-      <c r="E28" s="112" t="s">
+      <c r="E28" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="113"/>
+      <c r="F28" s="126"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="103" t="s">
+      <c r="H28" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="104"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="105"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="162"/>
+      <c r="L28" s="162"/>
+      <c r="M28" s="162"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="162"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="162"/>
+      <c r="R28" s="162"/>
+      <c r="S28" s="162"/>
+      <c r="T28" s="163"/>
       <c r="U28" s="31"/>
       <c r="V28" s="7"/>
     </row>
     <row r="29" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="6"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="115"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="129"/>
       <c r="G29" s="8"/>
       <c r="H29" s="23"/>
       <c r="I29" s="25"/>
@@ -2886,25 +3134,25 @@
     </row>
     <row r="30" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="6"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="117"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="132"/>
       <c r="G30" s="8"/>
       <c r="H30" s="23"/>
-      <c r="I30" s="118" t="s">
+      <c r="I30" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="J30" s="119"/>
-      <c r="K30" s="120"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="148"/>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
-      <c r="O30" s="118" t="s">
+      <c r="O30" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="120"/>
+      <c r="P30" s="147"/>
+      <c r="Q30" s="147"/>
+      <c r="R30" s="147"/>
+      <c r="S30" s="148"/>
       <c r="T30" s="26"/>
       <c r="U30" s="8"/>
       <c r="V30" s="7"/>
@@ -2939,19 +3187,19 @@
       <c r="I32" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="121" t="s">
+      <c r="J32" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="122"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="121" t="s">
+      <c r="K32" s="166"/>
+      <c r="L32" s="166"/>
+      <c r="M32" s="166"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
+      <c r="P32" s="166"/>
+      <c r="Q32" s="166"/>
+      <c r="R32" s="166"/>
       <c r="S32" s="35" t="s">
         <v>19</v>
       </c>
@@ -3047,46 +3295,46 @@
     </row>
     <row r="37" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D37" s="6"/>
-      <c r="E37" s="124" t="s">
+      <c r="E37" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="125"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="125"/>
-      <c r="N37" s="125"/>
-      <c r="O37" s="125"/>
-      <c r="P37" s="125"/>
-      <c r="Q37" s="125"/>
-      <c r="R37" s="125"/>
-      <c r="S37" s="125"/>
-      <c r="T37" s="125"/>
-      <c r="U37" s="126"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
+      <c r="N37" s="150"/>
+      <c r="O37" s="150"/>
+      <c r="P37" s="150"/>
+      <c r="Q37" s="150"/>
+      <c r="R37" s="150"/>
+      <c r="S37" s="150"/>
+      <c r="T37" s="150"/>
+      <c r="U37" s="151"/>
       <c r="V37" s="7"/>
     </row>
     <row r="38" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="128"/>
-      <c r="M38" s="128"/>
-      <c r="N38" s="128"/>
-      <c r="O38" s="128"/>
-      <c r="P38" s="128"/>
-      <c r="Q38" s="128"/>
-      <c r="R38" s="128"/>
-      <c r="S38" s="128"/>
-      <c r="T38" s="128"/>
-      <c r="U38" s="129"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="153"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="153"/>
+      <c r="N38" s="153"/>
+      <c r="O38" s="153"/>
+      <c r="P38" s="153"/>
+      <c r="Q38" s="153"/>
+      <c r="R38" s="153"/>
+      <c r="S38" s="153"/>
+      <c r="T38" s="153"/>
+      <c r="U38" s="154"/>
       <c r="V38" s="7"/>
     </row>
     <row r="39" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3134,50 +3382,50 @@
     </row>
     <row r="43" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" s="6"/>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="F43" s="52"/>
-      <c r="G43" s="106" t="s">
+      <c r="F43" s="65"/>
+      <c r="G43" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
-      <c r="L43" s="107"/>
-      <c r="M43" s="107"/>
-      <c r="N43" s="107"/>
-      <c r="O43" s="107"/>
-      <c r="P43" s="107"/>
-      <c r="Q43" s="107"/>
-      <c r="R43" s="107"/>
-      <c r="S43" s="107"/>
-      <c r="T43" s="107"/>
-      <c r="U43" s="108"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="156"/>
+      <c r="P43" s="156"/>
+      <c r="Q43" s="156"/>
+      <c r="R43" s="156"/>
+      <c r="S43" s="156"/>
+      <c r="T43" s="156"/>
+      <c r="U43" s="157"/>
       <c r="V43" s="1"/>
     </row>
     <row r="44" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D44" s="6"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="109" t="s">
+      <c r="E44" s="66"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="110"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="110"/>
-      <c r="N44" s="110"/>
-      <c r="O44" s="110"/>
-      <c r="P44" s="110"/>
-      <c r="Q44" s="110"/>
-      <c r="R44" s="110"/>
-      <c r="S44" s="110"/>
-      <c r="T44" s="110"/>
-      <c r="U44" s="111"/>
+      <c r="H44" s="159"/>
+      <c r="I44" s="159"/>
+      <c r="J44" s="159"/>
+      <c r="K44" s="159"/>
+      <c r="L44" s="159"/>
+      <c r="M44" s="159"/>
+      <c r="N44" s="159"/>
+      <c r="O44" s="159"/>
+      <c r="P44" s="159"/>
+      <c r="Q44" s="159"/>
+      <c r="R44" s="159"/>
+      <c r="S44" s="159"/>
+      <c r="T44" s="159"/>
+      <c r="U44" s="160"/>
       <c r="V44" s="1"/>
     </row>
     <row r="45" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3203,33 +3451,33 @@
     </row>
     <row r="46" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D46" s="6"/>
-      <c r="E46" s="112" t="s">
+      <c r="E46" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="113"/>
+      <c r="F46" s="126"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="103" t="s">
+      <c r="H46" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="I46" s="104"/>
-      <c r="J46" s="104"/>
-      <c r="K46" s="104"/>
-      <c r="L46" s="104"/>
-      <c r="M46" s="104"/>
-      <c r="N46" s="104"/>
-      <c r="O46" s="104"/>
-      <c r="P46" s="104"/>
-      <c r="Q46" s="104"/>
-      <c r="R46" s="104"/>
-      <c r="S46" s="104"/>
-      <c r="T46" s="105"/>
+      <c r="I46" s="162"/>
+      <c r="J46" s="162"/>
+      <c r="K46" s="162"/>
+      <c r="L46" s="162"/>
+      <c r="M46" s="162"/>
+      <c r="N46" s="162"/>
+      <c r="O46" s="162"/>
+      <c r="P46" s="162"/>
+      <c r="Q46" s="162"/>
+      <c r="R46" s="162"/>
+      <c r="S46" s="162"/>
+      <c r="T46" s="163"/>
       <c r="U46" s="31"/>
       <c r="V46" s="7"/>
     </row>
     <row r="47" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D47" s="6"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="115"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="129"/>
       <c r="G47" s="8"/>
       <c r="H47" s="23"/>
       <c r="I47" s="25"/>
@@ -3249,25 +3497,25 @@
     </row>
     <row r="48" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="6"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="117"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="132"/>
       <c r="G48" s="8"/>
       <c r="H48" s="23"/>
-      <c r="I48" s="118" t="s">
+      <c r="I48" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="J48" s="119"/>
-      <c r="K48" s="120"/>
+      <c r="J48" s="147"/>
+      <c r="K48" s="148"/>
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
       <c r="N48" s="25"/>
-      <c r="O48" s="118" t="s">
+      <c r="O48" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="P48" s="119"/>
-      <c r="Q48" s="119"/>
-      <c r="R48" s="119"/>
-      <c r="S48" s="120"/>
+      <c r="P48" s="147"/>
+      <c r="Q48" s="147"/>
+      <c r="R48" s="147"/>
+      <c r="S48" s="148"/>
       <c r="T48" s="26"/>
       <c r="U48" s="8"/>
       <c r="V48" s="7"/>
@@ -3302,25 +3550,25 @@
       <c r="I50" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="121" t="s">
+      <c r="J50" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="K50" s="123"/>
-      <c r="L50" s="121" t="s">
+      <c r="K50" s="143"/>
+      <c r="L50" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="M50" s="123"/>
-      <c r="N50" s="121" t="s">
+      <c r="M50" s="143"/>
+      <c r="N50" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="O50" s="123"/>
+      <c r="O50" s="143"/>
       <c r="P50" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="Q50" s="121" t="s">
+      <c r="Q50" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="R50" s="123"/>
+      <c r="R50" s="143"/>
       <c r="S50" s="35" t="s">
         <v>19</v>
       </c>
@@ -3335,15 +3583,15 @@
       <c r="G51" s="8"/>
       <c r="H51" s="23"/>
       <c r="I51" s="28"/>
-      <c r="J51" s="131"/>
-      <c r="K51" s="131"/>
-      <c r="L51" s="131"/>
-      <c r="M51" s="131"/>
-      <c r="N51" s="131"/>
-      <c r="O51" s="131"/>
+      <c r="J51" s="165"/>
+      <c r="K51" s="165"/>
+      <c r="L51" s="165"/>
+      <c r="M51" s="165"/>
+      <c r="N51" s="165"/>
+      <c r="O51" s="165"/>
       <c r="P51" s="32"/>
-      <c r="Q51" s="131"/>
-      <c r="R51" s="131"/>
+      <c r="Q51" s="165"/>
+      <c r="R51" s="165"/>
       <c r="S51" s="36" t="s">
         <v>20</v>
       </c>
@@ -3416,46 +3664,46 @@
     </row>
     <row r="55" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D55" s="6"/>
-      <c r="E55" s="124" t="s">
+      <c r="E55" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="125"/>
-      <c r="G55" s="125"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="125"/>
-      <c r="J55" s="125"/>
-      <c r="K55" s="125"/>
-      <c r="L55" s="125"/>
-      <c r="M55" s="125"/>
-      <c r="N55" s="125"/>
-      <c r="O55" s="125"/>
-      <c r="P55" s="125"/>
-      <c r="Q55" s="125"/>
-      <c r="R55" s="125"/>
-      <c r="S55" s="125"/>
-      <c r="T55" s="125"/>
-      <c r="U55" s="126"/>
+      <c r="F55" s="150"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="150"/>
+      <c r="I55" s="150"/>
+      <c r="J55" s="150"/>
+      <c r="K55" s="150"/>
+      <c r="L55" s="150"/>
+      <c r="M55" s="150"/>
+      <c r="N55" s="150"/>
+      <c r="O55" s="150"/>
+      <c r="P55" s="150"/>
+      <c r="Q55" s="150"/>
+      <c r="R55" s="150"/>
+      <c r="S55" s="150"/>
+      <c r="T55" s="150"/>
+      <c r="U55" s="151"/>
       <c r="V55" s="7"/>
     </row>
     <row r="56" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="6"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="128"/>
-      <c r="H56" s="128"/>
-      <c r="I56" s="128"/>
-      <c r="J56" s="128"/>
-      <c r="K56" s="128"/>
-      <c r="L56" s="128"/>
-      <c r="M56" s="128"/>
-      <c r="N56" s="128"/>
-      <c r="O56" s="128"/>
-      <c r="P56" s="128"/>
-      <c r="Q56" s="128"/>
-      <c r="R56" s="128"/>
-      <c r="S56" s="128"/>
-      <c r="T56" s="128"/>
-      <c r="U56" s="129"/>
+      <c r="E56" s="152"/>
+      <c r="F56" s="153"/>
+      <c r="G56" s="153"/>
+      <c r="H56" s="153"/>
+      <c r="I56" s="153"/>
+      <c r="J56" s="153"/>
+      <c r="K56" s="153"/>
+      <c r="L56" s="153"/>
+      <c r="M56" s="153"/>
+      <c r="N56" s="153"/>
+      <c r="O56" s="153"/>
+      <c r="P56" s="153"/>
+      <c r="Q56" s="153"/>
+      <c r="R56" s="153"/>
+      <c r="S56" s="153"/>
+      <c r="T56" s="153"/>
+      <c r="U56" s="154"/>
       <c r="V56" s="7"/>
     </row>
     <row r="57" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3503,50 +3751,50 @@
     </row>
     <row r="61" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" s="6"/>
-      <c r="E61" s="50" t="s">
+      <c r="E61" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="F61" s="52"/>
-      <c r="G61" s="106" t="s">
+      <c r="F61" s="65"/>
+      <c r="G61" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="107"/>
-      <c r="K61" s="107"/>
-      <c r="L61" s="107"/>
-      <c r="M61" s="107"/>
-      <c r="N61" s="107"/>
-      <c r="O61" s="107"/>
-      <c r="P61" s="107"/>
-      <c r="Q61" s="107"/>
-      <c r="R61" s="107"/>
-      <c r="S61" s="107"/>
-      <c r="T61" s="107"/>
-      <c r="U61" s="108"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="156"/>
+      <c r="K61" s="156"/>
+      <c r="L61" s="156"/>
+      <c r="M61" s="156"/>
+      <c r="N61" s="156"/>
+      <c r="O61" s="156"/>
+      <c r="P61" s="156"/>
+      <c r="Q61" s="156"/>
+      <c r="R61" s="156"/>
+      <c r="S61" s="156"/>
+      <c r="T61" s="156"/>
+      <c r="U61" s="157"/>
       <c r="V61" s="1"/>
     </row>
     <row r="62" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" s="6"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="109" t="s">
+      <c r="E62" s="66"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="H62" s="110"/>
-      <c r="I62" s="110"/>
-      <c r="J62" s="110"/>
-      <c r="K62" s="110"/>
-      <c r="L62" s="110"/>
-      <c r="M62" s="110"/>
-      <c r="N62" s="110"/>
-      <c r="O62" s="110"/>
-      <c r="P62" s="110"/>
-      <c r="Q62" s="110"/>
-      <c r="R62" s="110"/>
-      <c r="S62" s="110"/>
-      <c r="T62" s="110"/>
-      <c r="U62" s="111"/>
+      <c r="H62" s="159"/>
+      <c r="I62" s="159"/>
+      <c r="J62" s="159"/>
+      <c r="K62" s="159"/>
+      <c r="L62" s="159"/>
+      <c r="M62" s="159"/>
+      <c r="N62" s="159"/>
+      <c r="O62" s="159"/>
+      <c r="P62" s="159"/>
+      <c r="Q62" s="159"/>
+      <c r="R62" s="159"/>
+      <c r="S62" s="159"/>
+      <c r="T62" s="159"/>
+      <c r="U62" s="160"/>
       <c r="V62" s="1"/>
     </row>
     <row r="63" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3572,33 +3820,33 @@
     </row>
     <row r="64" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D64" s="6"/>
-      <c r="E64" s="112" t="s">
+      <c r="E64" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="113"/>
+      <c r="F64" s="126"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="103" t="s">
+      <c r="H64" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="I64" s="104"/>
-      <c r="J64" s="104"/>
-      <c r="K64" s="104"/>
-      <c r="L64" s="104"/>
-      <c r="M64" s="104"/>
-      <c r="N64" s="104"/>
-      <c r="O64" s="104"/>
-      <c r="P64" s="104"/>
-      <c r="Q64" s="104"/>
-      <c r="R64" s="104"/>
-      <c r="S64" s="104"/>
-      <c r="T64" s="105"/>
+      <c r="I64" s="162"/>
+      <c r="J64" s="162"/>
+      <c r="K64" s="162"/>
+      <c r="L64" s="162"/>
+      <c r="M64" s="162"/>
+      <c r="N64" s="162"/>
+      <c r="O64" s="162"/>
+      <c r="P64" s="162"/>
+      <c r="Q64" s="162"/>
+      <c r="R64" s="162"/>
+      <c r="S64" s="162"/>
+      <c r="T64" s="163"/>
       <c r="U64" s="31"/>
       <c r="V64" s="7"/>
     </row>
     <row r="65" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D65" s="6"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="115"/>
+      <c r="E65" s="127"/>
+      <c r="F65" s="129"/>
       <c r="G65" s="8"/>
       <c r="H65" s="23"/>
       <c r="I65" s="25"/>
@@ -3618,8 +3866,8 @@
     </row>
     <row r="66" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D66" s="6"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="115"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="129"/>
       <c r="G66" s="8"/>
       <c r="H66" s="23"/>
       <c r="I66" s="25"/>
@@ -3639,13 +3887,13 @@
     </row>
     <row r="67" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D67" s="6"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="115"/>
+      <c r="E67" s="127"/>
+      <c r="F67" s="129"/>
       <c r="G67" s="8"/>
       <c r="H67" s="23"/>
-      <c r="I67" s="130"/>
-      <c r="J67" s="130"/>
-      <c r="K67" s="130"/>
+      <c r="I67" s="164"/>
+      <c r="J67" s="164"/>
+      <c r="K67" s="164"/>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
       <c r="N67" s="25"/>
@@ -3660,8 +3908,8 @@
     </row>
     <row r="68" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D68" s="6"/>
-      <c r="E68" s="114"/>
-      <c r="F68" s="115"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="129"/>
       <c r="G68" s="8"/>
       <c r="H68" s="23"/>
       <c r="I68" s="25"/>
@@ -3681,8 +3929,8 @@
     </row>
     <row r="69" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D69" s="6"/>
-      <c r="E69" s="114"/>
-      <c r="F69" s="115"/>
+      <c r="E69" s="127"/>
+      <c r="F69" s="129"/>
       <c r="G69" s="8"/>
       <c r="H69" s="23"/>
       <c r="I69" s="25"/>
@@ -3702,14 +3950,14 @@
     </row>
     <row r="70" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D70" s="6"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="115"/>
+      <c r="E70" s="127"/>
+      <c r="F70" s="129"/>
       <c r="G70" s="8"/>
       <c r="H70" s="23"/>
-      <c r="I70" s="130"/>
-      <c r="J70" s="130"/>
-      <c r="K70" s="130"/>
-      <c r="L70" s="130"/>
+      <c r="I70" s="164"/>
+      <c r="J70" s="164"/>
+      <c r="K70" s="164"/>
+      <c r="L70" s="164"/>
       <c r="M70" s="25"/>
       <c r="N70" s="33"/>
       <c r="O70" s="25"/>
@@ -3723,8 +3971,8 @@
     </row>
     <row r="71" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D71" s="6"/>
-      <c r="E71" s="114"/>
-      <c r="F71" s="115"/>
+      <c r="E71" s="127"/>
+      <c r="F71" s="129"/>
       <c r="G71" s="8"/>
       <c r="H71" s="23"/>
       <c r="I71" s="25"/>
@@ -3744,15 +3992,15 @@
     </row>
     <row r="72" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D72" s="6"/>
-      <c r="E72" s="116"/>
-      <c r="F72" s="117"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="132"/>
       <c r="G72" s="8"/>
       <c r="H72" s="23"/>
-      <c r="I72" s="130"/>
-      <c r="J72" s="130"/>
-      <c r="K72" s="130"/>
-      <c r="L72" s="130"/>
-      <c r="M72" s="130"/>
+      <c r="I72" s="164"/>
+      <c r="J72" s="164"/>
+      <c r="K72" s="164"/>
+      <c r="L72" s="164"/>
+      <c r="M72" s="164"/>
       <c r="N72" s="25"/>
       <c r="O72" s="25"/>
       <c r="P72" s="25"/>
@@ -3769,11 +4017,11 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="23"/>
-      <c r="I73" s="130"/>
-      <c r="J73" s="130"/>
-      <c r="K73" s="130"/>
-      <c r="L73" s="130"/>
-      <c r="M73" s="130"/>
+      <c r="I73" s="164"/>
+      <c r="J73" s="164"/>
+      <c r="K73" s="164"/>
+      <c r="L73" s="164"/>
+      <c r="M73" s="164"/>
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
       <c r="P73" s="25"/>
@@ -3849,46 +4097,46 @@
     </row>
     <row r="77" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D77" s="6"/>
-      <c r="E77" s="124" t="s">
+      <c r="E77" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="F77" s="125"/>
-      <c r="G77" s="125"/>
-      <c r="H77" s="125"/>
-      <c r="I77" s="125"/>
-      <c r="J77" s="125"/>
-      <c r="K77" s="125"/>
-      <c r="L77" s="125"/>
-      <c r="M77" s="125"/>
-      <c r="N77" s="125"/>
-      <c r="O77" s="125"/>
-      <c r="P77" s="125"/>
-      <c r="Q77" s="125"/>
-      <c r="R77" s="125"/>
-      <c r="S77" s="125"/>
-      <c r="T77" s="125"/>
-      <c r="U77" s="126"/>
+      <c r="F77" s="150"/>
+      <c r="G77" s="150"/>
+      <c r="H77" s="150"/>
+      <c r="I77" s="150"/>
+      <c r="J77" s="150"/>
+      <c r="K77" s="150"/>
+      <c r="L77" s="150"/>
+      <c r="M77" s="150"/>
+      <c r="N77" s="150"/>
+      <c r="O77" s="150"/>
+      <c r="P77" s="150"/>
+      <c r="Q77" s="150"/>
+      <c r="R77" s="150"/>
+      <c r="S77" s="150"/>
+      <c r="T77" s="150"/>
+      <c r="U77" s="151"/>
       <c r="V77" s="7"/>
     </row>
     <row r="78" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D78" s="6"/>
-      <c r="E78" s="127"/>
-      <c r="F78" s="128"/>
-      <c r="G78" s="128"/>
-      <c r="H78" s="128"/>
-      <c r="I78" s="128"/>
-      <c r="J78" s="128"/>
-      <c r="K78" s="128"/>
-      <c r="L78" s="128"/>
-      <c r="M78" s="128"/>
-      <c r="N78" s="128"/>
-      <c r="O78" s="128"/>
-      <c r="P78" s="128"/>
-      <c r="Q78" s="128"/>
-      <c r="R78" s="128"/>
-      <c r="S78" s="128"/>
-      <c r="T78" s="128"/>
-      <c r="U78" s="129"/>
+      <c r="E78" s="152"/>
+      <c r="F78" s="153"/>
+      <c r="G78" s="153"/>
+      <c r="H78" s="153"/>
+      <c r="I78" s="153"/>
+      <c r="J78" s="153"/>
+      <c r="K78" s="153"/>
+      <c r="L78" s="153"/>
+      <c r="M78" s="153"/>
+      <c r="N78" s="153"/>
+      <c r="O78" s="153"/>
+      <c r="P78" s="153"/>
+      <c r="Q78" s="153"/>
+      <c r="R78" s="153"/>
+      <c r="S78" s="153"/>
+      <c r="T78" s="153"/>
+      <c r="U78" s="154"/>
       <c r="V78" s="7"/>
     </row>
     <row r="79" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3914,43 +4162,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="E77:U78"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="G61:U61"/>
-    <mergeCell ref="G62:U62"/>
-    <mergeCell ref="E64:F72"/>
-    <mergeCell ref="H64:T64"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="I72:M73"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="E55:U56"/>
-    <mergeCell ref="E46:F48"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="E37:U38"/>
-    <mergeCell ref="G43:U43"/>
-    <mergeCell ref="G44:U44"/>
-    <mergeCell ref="H46:T46"/>
-    <mergeCell ref="O48:S48"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O30:S30"/>
-    <mergeCell ref="E19:U20"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:U25"/>
-    <mergeCell ref="G26:U26"/>
-    <mergeCell ref="E28:F30"/>
     <mergeCell ref="H28:T28"/>
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="O13:P13"/>
@@ -3965,6 +4176,43 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="I10:K10"/>
+    <mergeCell ref="E46:F48"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="E37:U38"/>
+    <mergeCell ref="G43:U43"/>
+    <mergeCell ref="G44:U44"/>
+    <mergeCell ref="H46:T46"/>
+    <mergeCell ref="O48:S48"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="E55:U56"/>
+    <mergeCell ref="E77:U78"/>
+    <mergeCell ref="E61:F62"/>
+    <mergeCell ref="G61:U61"/>
+    <mergeCell ref="G62:U62"/>
+    <mergeCell ref="E64:F72"/>
+    <mergeCell ref="H64:T64"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="I72:M73"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="E19:U20"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:U25"/>
+    <mergeCell ref="G26:U26"/>
+    <mergeCell ref="E28:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
@@ -3972,6 +4220,1911 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC10051-04E1-495B-B91A-5D7AEAF55194}">
+  <dimension ref="C3:AL65"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P43" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="2.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="19" max="20" width="3.5703125" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" customWidth="1"/>
+    <col min="23" max="23" width="3" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" customWidth="1"/>
+    <col min="25" max="25" width="2.7109375" customWidth="1"/>
+    <col min="26" max="26" width="18" customWidth="1"/>
+    <col min="27" max="27" width="1.85546875" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" customWidth="1"/>
+    <col min="29" max="29" width="18.140625" customWidth="1"/>
+    <col min="32" max="32" width="1.85546875" customWidth="1"/>
+    <col min="38" max="38" width="2.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="155" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="156"/>
+      <c r="T5" s="157"/>
+      <c r="U5" s="1"/>
+      <c r="X5" s="187" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" s="187"/>
+      <c r="Z5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="6"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="158" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="1"/>
+      <c r="X6" s="187"/>
+      <c r="Y6" s="187"/>
+    </row>
+    <row r="7" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="6"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6"/>
+      <c r="D8" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="126"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="161" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
+      <c r="P8" s="162"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="162"/>
+      <c r="S8" s="163"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="7"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="5"/>
+    </row>
+    <row r="9" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="6"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="7"/>
+      <c r="W9" s="205" t="s">
+        <v>62</v>
+      </c>
+      <c r="X9" s="206"/>
+      <c r="Y9" s="206"/>
+      <c r="Z9" s="206"/>
+      <c r="AA9" s="206"/>
+      <c r="AB9" s="206"/>
+      <c r="AC9" s="206"/>
+      <c r="AD9" s="206"/>
+      <c r="AE9" s="206"/>
+      <c r="AF9" s="207"/>
+    </row>
+    <row r="10" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="182" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="183"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="186" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="186"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="7"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="7"/>
+    </row>
+    <row r="11" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="6"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="7"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="193"/>
+      <c r="AA11" s="193"/>
+      <c r="AB11" s="193"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="7"/>
+    </row>
+    <row r="12" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="7"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="7"/>
+    </row>
+    <row r="13" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="144" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="145"/>
+      <c r="K13" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="167"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="144" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="167"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="26"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="7"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="194"/>
+      <c r="AA13" s="195"/>
+      <c r="AB13" s="196"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="7"/>
+    </row>
+    <row r="14" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="6"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="167"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="7"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="7"/>
+    </row>
+    <row r="15" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="6"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="167"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="144"/>
+      <c r="P15" s="167"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="7"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="197" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="198" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC15" s="199"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="7"/>
+    </row>
+    <row r="16" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="6"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="167"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="167"/>
+      <c r="Q16" s="145"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="7"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="7"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="167"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="167"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="7"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="7"/>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="167"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="167"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="7"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="200" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y18" s="201" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z18" s="202"/>
+      <c r="AA18" s="201" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB18" s="202"/>
+      <c r="AC18" s="200" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD18" s="200" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE18" s="200" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF18" s="7"/>
+    </row>
+    <row r="19" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="6"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="7"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="203"/>
+      <c r="Y19" s="194"/>
+      <c r="Z19" s="196"/>
+      <c r="AA19" s="194"/>
+      <c r="AB19" s="196"/>
+      <c r="AC19" s="203"/>
+      <c r="AD19" s="203"/>
+      <c r="AE19" s="203"/>
+      <c r="AF19" s="7"/>
+    </row>
+    <row r="20" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="6"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="7"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="203"/>
+      <c r="Y20" s="194"/>
+      <c r="Z20" s="196"/>
+      <c r="AA20" s="194"/>
+      <c r="AB20" s="196"/>
+      <c r="AC20" s="203"/>
+      <c r="AD20" s="203"/>
+      <c r="AE20" s="203"/>
+      <c r="AF20" s="7"/>
+    </row>
+    <row r="21" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="6"/>
+      <c r="D21" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="150"/>
+      <c r="Q21" s="150"/>
+      <c r="R21" s="150"/>
+      <c r="S21" s="150"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="7"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="11"/>
+    </row>
+    <row r="22" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="6"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="153"/>
+      <c r="T22" s="154"/>
+      <c r="U22" s="7"/>
+    </row>
+    <row r="23" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="11"/>
+    </row>
+    <row r="26" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="5"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="5"/>
+    </row>
+    <row r="28" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="6"/>
+      <c r="D28" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="65"/>
+      <c r="F28" s="155" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="157"/>
+      <c r="U28" s="1"/>
+      <c r="W28" s="205" t="s">
+        <v>71</v>
+      </c>
+      <c r="X28" s="206"/>
+      <c r="Y28" s="206"/>
+      <c r="Z28" s="206"/>
+      <c r="AA28" s="206"/>
+      <c r="AB28" s="206"/>
+      <c r="AC28" s="206"/>
+      <c r="AD28" s="206"/>
+      <c r="AE28" s="206"/>
+      <c r="AF28" s="207"/>
+    </row>
+    <row r="29" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="6"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="158" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="159"/>
+      <c r="P29" s="159"/>
+      <c r="Q29" s="159"/>
+      <c r="R29" s="159"/>
+      <c r="S29" s="159"/>
+      <c r="T29" s="160"/>
+      <c r="U29" s="1"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="7"/>
+    </row>
+    <row r="30" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="6"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="7"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="193"/>
+      <c r="AA30" s="193"/>
+      <c r="AB30" s="193"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="7"/>
+    </row>
+    <row r="31" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="6"/>
+      <c r="D31" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="126"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="161" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="162"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="162"/>
+      <c r="K31" s="162"/>
+      <c r="L31" s="162"/>
+      <c r="M31" s="162"/>
+      <c r="N31" s="162"/>
+      <c r="O31" s="162"/>
+      <c r="P31" s="162"/>
+      <c r="Q31" s="162"/>
+      <c r="R31" s="162"/>
+      <c r="S31" s="163"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="7"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="7"/>
+    </row>
+    <row r="32" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="6"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="7"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="194"/>
+      <c r="AA32" s="195"/>
+      <c r="AB32" s="196"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="7"/>
+    </row>
+    <row r="33" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C33" s="6"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="182" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="183"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="186" t="s">
+        <v>58</v>
+      </c>
+      <c r="R33" s="186"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="7"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="7"/>
+    </row>
+    <row r="34" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="6"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="181"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="7"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="193"/>
+      <c r="AA34" s="193"/>
+      <c r="AB34" s="193"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="7"/>
+    </row>
+    <row r="35" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C35" s="6"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="7"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="7"/>
+    </row>
+    <row r="36" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C36" s="6"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="144" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" s="145"/>
+      <c r="K36" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="167"/>
+      <c r="N36" s="145"/>
+      <c r="O36" s="144" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" s="167"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="S36" s="26"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="7"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="208" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="7"/>
+    </row>
+    <row r="37" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="6"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="167"/>
+      <c r="N37" s="145"/>
+      <c r="O37" s="144"/>
+      <c r="P37" s="167"/>
+      <c r="Q37" s="145"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="7"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="11"/>
+    </row>
+    <row r="38" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C38" s="6"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="144"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="144"/>
+      <c r="M38" s="167"/>
+      <c r="N38" s="145"/>
+      <c r="O38" s="144"/>
+      <c r="P38" s="167"/>
+      <c r="Q38" s="145"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="7"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+    </row>
+    <row r="39" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="6"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="144"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="144"/>
+      <c r="M39" s="167"/>
+      <c r="N39" s="145"/>
+      <c r="O39" s="144"/>
+      <c r="P39" s="167"/>
+      <c r="Q39" s="145"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="7"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+    </row>
+    <row r="40" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C40" s="6"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="144"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="144"/>
+      <c r="M40" s="167"/>
+      <c r="N40" s="145"/>
+      <c r="O40" s="144"/>
+      <c r="P40" s="167"/>
+      <c r="Q40" s="145"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="7"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+    </row>
+    <row r="41" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C41" s="6"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="144"/>
+      <c r="M41" s="167"/>
+      <c r="N41" s="145"/>
+      <c r="O41" s="144"/>
+      <c r="P41" s="167"/>
+      <c r="Q41" s="145"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="7"/>
+    </row>
+    <row r="42" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="6"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="7"/>
+    </row>
+    <row r="43" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="6"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="7"/>
+    </row>
+    <row r="44" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C44" s="6"/>
+      <c r="D44" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="150"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="150"/>
+      <c r="K44" s="150"/>
+      <c r="L44" s="150"/>
+      <c r="M44" s="150"/>
+      <c r="N44" s="150"/>
+      <c r="O44" s="150"/>
+      <c r="P44" s="150"/>
+      <c r="Q44" s="150"/>
+      <c r="R44" s="150"/>
+      <c r="S44" s="150"/>
+      <c r="T44" s="151"/>
+      <c r="U44" s="7"/>
+    </row>
+    <row r="45" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="6"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="153"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="153"/>
+      <c r="L45" s="153"/>
+      <c r="M45" s="153"/>
+      <c r="N45" s="153"/>
+      <c r="O45" s="153"/>
+      <c r="P45" s="153"/>
+      <c r="Q45" s="153"/>
+      <c r="R45" s="153"/>
+      <c r="S45" s="153"/>
+      <c r="T45" s="154"/>
+      <c r="U45" s="7"/>
+    </row>
+    <row r="46" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="11"/>
+    </row>
+    <row r="48" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="43"/>
+      <c r="AA49" s="43"/>
+      <c r="AB49" s="43"/>
+      <c r="AC49" s="43"/>
+      <c r="AD49" s="43"/>
+      <c r="AE49" s="43"/>
+      <c r="AF49" s="43"/>
+      <c r="AG49" s="43"/>
+      <c r="AH49" s="43"/>
+      <c r="AI49" s="43"/>
+      <c r="AJ49" s="43"/>
+      <c r="AK49" s="43"/>
+      <c r="AL49" s="44"/>
+    </row>
+    <row r="50" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="5"/>
+      <c r="Y50" s="217" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z50" s="191"/>
+      <c r="AA50" s="191"/>
+      <c r="AB50" s="191"/>
+      <c r="AC50" s="191"/>
+      <c r="AD50" s="191"/>
+      <c r="AE50" s="191"/>
+      <c r="AF50" s="191"/>
+      <c r="AG50" s="191"/>
+      <c r="AH50" s="191"/>
+      <c r="AI50" s="191"/>
+      <c r="AJ50" s="191"/>
+      <c r="AK50" s="191"/>
+      <c r="AL50" s="218"/>
+    </row>
+    <row r="51" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="6"/>
+      <c r="D51" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="65"/>
+      <c r="F51" s="155" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="156"/>
+      <c r="H51" s="156"/>
+      <c r="I51" s="156"/>
+      <c r="J51" s="156"/>
+      <c r="K51" s="156"/>
+      <c r="L51" s="156"/>
+      <c r="M51" s="156"/>
+      <c r="N51" s="156"/>
+      <c r="O51" s="156"/>
+      <c r="P51" s="156"/>
+      <c r="Q51" s="156"/>
+      <c r="R51" s="156"/>
+      <c r="S51" s="156"/>
+      <c r="T51" s="157"/>
+      <c r="U51" s="1"/>
+      <c r="Y51" s="45"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="40"/>
+      <c r="AB51" s="40"/>
+      <c r="AC51" s="40"/>
+      <c r="AD51" s="40"/>
+      <c r="AE51" s="40"/>
+      <c r="AF51" s="40"/>
+      <c r="AG51" s="40"/>
+      <c r="AH51" s="40"/>
+      <c r="AI51" s="40"/>
+      <c r="AJ51" s="40"/>
+      <c r="AK51" s="40"/>
+      <c r="AL51" s="1"/>
+    </row>
+    <row r="52" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="6"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="158" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="159"/>
+      <c r="H52" s="159"/>
+      <c r="I52" s="159"/>
+      <c r="J52" s="159"/>
+      <c r="K52" s="159"/>
+      <c r="L52" s="159"/>
+      <c r="M52" s="159"/>
+      <c r="N52" s="159"/>
+      <c r="O52" s="159"/>
+      <c r="P52" s="159"/>
+      <c r="Q52" s="159"/>
+      <c r="R52" s="159"/>
+      <c r="S52" s="159"/>
+      <c r="T52" s="160"/>
+      <c r="U52" s="1"/>
+      <c r="Y52" s="45"/>
+      <c r="Z52" s="212" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA52" s="40"/>
+      <c r="AB52" s="40"/>
+      <c r="AC52" s="40"/>
+      <c r="AD52" s="40"/>
+      <c r="AE52" s="40"/>
+      <c r="AF52" s="40"/>
+      <c r="AG52" s="40"/>
+      <c r="AH52" s="40"/>
+      <c r="AI52" s="40"/>
+      <c r="AJ52" s="40"/>
+      <c r="AK52" s="40"/>
+      <c r="AL52" s="1"/>
+    </row>
+    <row r="53" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="6"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="7"/>
+      <c r="Y53" s="45"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="40"/>
+      <c r="AB53" s="40"/>
+      <c r="AC53" s="40"/>
+      <c r="AD53" s="40"/>
+      <c r="AE53" s="40"/>
+      <c r="AF53" s="40"/>
+      <c r="AG53" s="40"/>
+      <c r="AH53" s="40"/>
+      <c r="AI53" s="40"/>
+      <c r="AJ53" s="40"/>
+      <c r="AK53" s="40"/>
+      <c r="AL53" s="1"/>
+    </row>
+    <row r="54" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="6"/>
+      <c r="D54" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="126"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="161" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="162"/>
+      <c r="I54" s="162"/>
+      <c r="J54" s="162"/>
+      <c r="K54" s="162"/>
+      <c r="L54" s="162"/>
+      <c r="M54" s="162"/>
+      <c r="N54" s="162"/>
+      <c r="O54" s="162"/>
+      <c r="P54" s="162"/>
+      <c r="Q54" s="162"/>
+      <c r="R54" s="162"/>
+      <c r="S54" s="163"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="7"/>
+      <c r="Y54" s="45"/>
+      <c r="Z54" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA54" s="40"/>
+      <c r="AB54" s="40"/>
+      <c r="AC54" s="40"/>
+      <c r="AD54" s="40"/>
+      <c r="AE54" s="40"/>
+      <c r="AF54" s="40"/>
+      <c r="AG54" s="40"/>
+      <c r="AH54" s="40"/>
+      <c r="AI54" s="40"/>
+      <c r="AJ54" s="40"/>
+      <c r="AK54" s="40"/>
+      <c r="AL54" s="1"/>
+    </row>
+    <row r="55" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="6"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="7"/>
+      <c r="Y55" s="45"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="40"/>
+      <c r="AB55" s="40"/>
+      <c r="AC55" s="40"/>
+      <c r="AD55" s="40"/>
+      <c r="AE55" s="40"/>
+      <c r="AF55" s="40"/>
+      <c r="AG55" s="40"/>
+      <c r="AH55" s="40"/>
+      <c r="AI55" s="40"/>
+      <c r="AJ55" s="40"/>
+      <c r="AK55" s="40"/>
+      <c r="AL55" s="1"/>
+    </row>
+    <row r="56" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="6"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="209"/>
+      <c r="K56" s="210"/>
+      <c r="L56" s="211"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="213" t="s">
+        <v>77</v>
+      </c>
+      <c r="O56" s="214"/>
+      <c r="P56" s="215"/>
+      <c r="Q56" s="192"/>
+      <c r="R56" s="192"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="7"/>
+      <c r="Y56" s="45"/>
+      <c r="Z56" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA56" s="40"/>
+      <c r="AB56" s="40"/>
+      <c r="AC56" s="40"/>
+      <c r="AD56" s="40"/>
+      <c r="AE56" s="40"/>
+      <c r="AF56" s="40"/>
+      <c r="AG56" s="40"/>
+      <c r="AH56" s="40"/>
+      <c r="AI56" s="40"/>
+      <c r="AJ56" s="40"/>
+      <c r="AK56" s="40"/>
+      <c r="AL56" s="1"/>
+    </row>
+    <row r="57" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="6"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="7"/>
+      <c r="Y57" s="45"/>
+      <c r="Z57" s="40"/>
+      <c r="AA57" s="40"/>
+      <c r="AB57" s="40"/>
+      <c r="AC57" s="40"/>
+      <c r="AD57" s="40"/>
+      <c r="AE57" s="40"/>
+      <c r="AF57" s="40"/>
+      <c r="AG57" s="40"/>
+      <c r="AH57" s="40"/>
+      <c r="AI57" s="40"/>
+      <c r="AJ57" s="40"/>
+      <c r="AK57" s="40"/>
+      <c r="AL57" s="1"/>
+    </row>
+    <row r="58" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="6"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="129"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58" s="8"/>
+      <c r="J58" s="209"/>
+      <c r="K58" s="210"/>
+      <c r="L58" s="211"/>
+      <c r="M58" s="204"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="7"/>
+      <c r="Y58" s="45"/>
+      <c r="Z58" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA58" s="216" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB58" s="216"/>
+      <c r="AC58" s="216"/>
+      <c r="AD58" s="216" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE58" s="216"/>
+      <c r="AF58" s="216" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG58" s="216"/>
+      <c r="AH58" s="216"/>
+      <c r="AI58" s="216" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ58" s="216"/>
+      <c r="AK58" s="216"/>
+      <c r="AL58" s="1"/>
+    </row>
+    <row r="59" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="6"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="204"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="7"/>
+      <c r="Y59" s="45"/>
+      <c r="Z59" s="41"/>
+      <c r="AA59" s="188"/>
+      <c r="AB59" s="189"/>
+      <c r="AC59" s="190"/>
+      <c r="AD59" s="188"/>
+      <c r="AE59" s="190"/>
+      <c r="AF59" s="188"/>
+      <c r="AG59" s="189"/>
+      <c r="AH59" s="190"/>
+      <c r="AI59" s="188"/>
+      <c r="AJ59" s="189"/>
+      <c r="AK59" s="190"/>
+      <c r="AL59" s="1"/>
+    </row>
+    <row r="60" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="6"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="209"/>
+      <c r="K60" s="210"/>
+      <c r="L60" s="211"/>
+      <c r="M60" s="204"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="7"/>
+      <c r="Y60" s="45"/>
+      <c r="Z60" s="41"/>
+      <c r="AA60" s="188"/>
+      <c r="AB60" s="189"/>
+      <c r="AC60" s="190"/>
+      <c r="AD60" s="188"/>
+      <c r="AE60" s="190"/>
+      <c r="AF60" s="188"/>
+      <c r="AG60" s="189"/>
+      <c r="AH60" s="190"/>
+      <c r="AI60" s="188"/>
+      <c r="AJ60" s="189"/>
+      <c r="AK60" s="190"/>
+      <c r="AL60" s="1"/>
+    </row>
+    <row r="61" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="6"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="7"/>
+      <c r="Y61" s="47"/>
+      <c r="Z61" s="48"/>
+      <c r="AA61" s="48"/>
+      <c r="AB61" s="48"/>
+      <c r="AC61" s="48"/>
+      <c r="AD61" s="48"/>
+      <c r="AE61" s="48"/>
+      <c r="AF61" s="48"/>
+      <c r="AG61" s="48"/>
+      <c r="AH61" s="48"/>
+      <c r="AI61" s="48"/>
+      <c r="AJ61" s="48"/>
+      <c r="AK61" s="48"/>
+      <c r="AL61" s="49"/>
+    </row>
+    <row r="62" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="6"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="7"/>
+    </row>
+    <row r="63" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C63" s="6"/>
+      <c r="D63" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="150"/>
+      <c r="F63" s="150"/>
+      <c r="G63" s="150"/>
+      <c r="H63" s="150"/>
+      <c r="I63" s="150"/>
+      <c r="J63" s="150"/>
+      <c r="K63" s="150"/>
+      <c r="L63" s="150"/>
+      <c r="M63" s="150"/>
+      <c r="N63" s="150"/>
+      <c r="O63" s="150"/>
+      <c r="P63" s="150"/>
+      <c r="Q63" s="150"/>
+      <c r="R63" s="150"/>
+      <c r="S63" s="150"/>
+      <c r="T63" s="151"/>
+      <c r="U63" s="7"/>
+    </row>
+    <row r="64" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="6"/>
+      <c r="D64" s="152"/>
+      <c r="E64" s="153"/>
+      <c r="F64" s="153"/>
+      <c r="G64" s="153"/>
+      <c r="H64" s="153"/>
+      <c r="I64" s="153"/>
+      <c r="J64" s="153"/>
+      <c r="K64" s="153"/>
+      <c r="L64" s="153"/>
+      <c r="M64" s="153"/>
+      <c r="N64" s="153"/>
+      <c r="O64" s="153"/>
+      <c r="P64" s="153"/>
+      <c r="Q64" s="153"/>
+      <c r="R64" s="153"/>
+      <c r="S64" s="153"/>
+      <c r="T64" s="154"/>
+      <c r="U64" s="7"/>
+    </row>
+    <row r="65" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="9"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="91">
+    <mergeCell ref="AI60:AK60"/>
+    <mergeCell ref="Y50:AL50"/>
+    <mergeCell ref="AD58:AE58"/>
+    <mergeCell ref="AF58:AH58"/>
+    <mergeCell ref="AI58:AK58"/>
+    <mergeCell ref="AA59:AC59"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AD59:AE59"/>
+    <mergeCell ref="AD60:AE60"/>
+    <mergeCell ref="AF59:AH59"/>
+    <mergeCell ref="AF60:AH60"/>
+    <mergeCell ref="AI59:AK59"/>
+    <mergeCell ref="D63:T64"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="D54:E58"/>
+    <mergeCell ref="G54:S54"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="F51:T51"/>
+    <mergeCell ref="F52:T52"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="D44:T45"/>
+    <mergeCell ref="W28:AF28"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="F28:T28"/>
+    <mergeCell ref="F29:T29"/>
+    <mergeCell ref="D31:E39"/>
+    <mergeCell ref="G31:S31"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="W9:AF9"/>
+    <mergeCell ref="X5:Y6"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="D21:T22"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="F6:T6"/>
+    <mergeCell ref="D8:E16"/>
+    <mergeCell ref="G8:S8"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0EE014-0FAD-4E3E-A4FF-2A84DAA66BC0}">
   <dimension ref="B1:K17"/>
   <sheetViews>
@@ -4005,28 +6158,28 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="45"/>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="134"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="172"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="45"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="137"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="175"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -4057,42 +6210,42 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
-      <c r="C7" s="169" t="s">
+      <c r="C7" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="169" t="s">
+      <c r="D7" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="169" t="s">
+      <c r="E7" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="169" t="s">
+      <c r="F7" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="165" t="s">
+      <c r="G7" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="167"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="178"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="168" t="s">
+      <c r="C8" s="180"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="168" t="s">
+      <c r="H8" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="168" t="s">
+      <c r="I8" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="168" t="s">
+      <c r="J8" s="56" t="s">
         <v>47</v>
       </c>
       <c r="K8" s="1"/>
@@ -4128,10 +6281,10 @@
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
-      <c r="H11" s="171" t="s">
+      <c r="H11" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="171"/>
+      <c r="I11" s="169"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
     </row>
@@ -4142,10 +6295,10 @@
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
-      <c r="H12" s="171" t="s">
+      <c r="H12" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="171"/>
+      <c r="I12" s="169"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
     </row>
@@ -4156,10 +6309,10 @@
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
-      <c r="H13" s="171" t="s">
+      <c r="H13" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="171"/>
+      <c r="I13" s="169"/>
       <c r="J13" s="40"/>
       <c r="K13" s="1"/>
     </row>
@@ -4170,10 +6323,10 @@
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
-      <c r="H14" s="172" t="s">
+      <c r="H14" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="172"/>
+      <c r="I14" s="168"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
     </row>
@@ -4184,8 +6337,8 @@
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
     </row>
@@ -4196,10 +6349,10 @@
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
-      <c r="H16" s="171" t="s">
+      <c r="H16" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="171"/>
+      <c r="I16" s="169"/>
       <c r="J16" s="40"/>
       <c r="K16" s="1"/>
     </row>
@@ -4234,12 +6387,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AAE54B-B6E8-4A12-B420-7E05452F9D5E}">
   <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4267,26 +6420,26 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="45"/>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="45"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -4315,38 +6468,38 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
-      <c r="C7" s="174" t="s">
+      <c r="C7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="174" t="s">
+      <c r="D7" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="174" t="s">
+      <c r="E7" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="168" t="s">
+      <c r="G7" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="168" t="s">
+      <c r="H7" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="168" t="s">
+      <c r="I7" s="56" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -4377,11 +6530,11 @@
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
-      <c r="G11" s="171" t="s">
+      <c r="G11" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -4390,11 +6543,11 @@
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
-      <c r="G12" s="171" t="s">
+      <c r="G12" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -4403,11 +6556,11 @@
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
-      <c r="G13" s="171" t="s">
+      <c r="G13" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -4416,11 +6569,11 @@
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
-      <c r="G14" s="172" t="s">
+      <c r="G14" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -4429,9 +6582,9 @@
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -4440,11 +6593,11 @@
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
-      <c r="G16" s="171" t="s">
+      <c r="G16" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4460,13 +6613,27 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C3:I4"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I15"/>
     <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF51570-057D-4C08-B81D-ED18885BB778}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>